--- a/data/reference-person-age-range-2022.xlsx
+++ b/data/reference-person-age-range-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asbjornfyhn/Desktop/Dyn Prog/DP-life-cycle/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21F2D36-26CF-8047-A497-A5332C096CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98771619-D27C-2541-BD9D-79D03655DA73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="181">
   <si>
     <t>Item</t>
   </si>
@@ -602,24 +602,29 @@
       <b/>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -737,17 +742,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,13 +1091,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J692"/>
+  <dimension ref="A1:S692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1104,8 +1109,8 @@
     <col min="10" max="10" width="12" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="18"/>
@@ -1118,12 +1123,12 @@
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
     </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -1187,27 +1192,27 @@
         <v>15255</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>49392</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>16</v>
       </c>
@@ -1271,7 +1276,7 @@
         <v>1943.47</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -1303,12 +1308,33 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="M12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="8" t="s">
         <v>15</v>
       </c>
@@ -1339,8 +1365,29 @@
       <c r="J13" s="6">
         <v>47928</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="M13" s="5">
+        <v>46359</v>
+      </c>
+      <c r="N13" s="5">
+        <v>67883</v>
+      </c>
+      <c r="O13" s="5">
+        <v>86049</v>
+      </c>
+      <c r="P13" s="5">
+        <v>91074</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>78079</v>
+      </c>
+      <c r="R13" s="5">
+        <v>57818</v>
+      </c>
+      <c r="S13" s="5">
+        <v>60844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
@@ -1372,7 +1419,7 @@
         <v>1634.88</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>17</v>
       </c>
@@ -1404,7 +1451,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -18353,7 +18400,7 @@
       </c>
     </row>
     <row r="685" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A685" s="19" t="s">
+      <c r="A685" s="20" t="s">
         <v>175</v>
       </c>
       <c r="B685" s="18"/>
@@ -18367,7 +18414,7 @@
       <c r="J685" s="18"/>
     </row>
     <row r="686" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A686" s="19" t="s">
+      <c r="A686" s="20" t="s">
         <v>176</v>
       </c>
       <c r="B686" s="18"/>
@@ -18381,7 +18428,7 @@
       <c r="J686" s="18"/>
     </row>
     <row r="687" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A687" s="19" t="s">
+      <c r="A687" s="20" t="s">
         <v>177</v>
       </c>
       <c r="B687" s="18"/>
@@ -18395,7 +18442,7 @@
       <c r="J687" s="18"/>
     </row>
     <row r="688" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A688" s="19" t="s">
+      <c r="A688" s="20" t="s">
         <v>178</v>
       </c>
       <c r="B688" s="18"/>
@@ -18409,7 +18456,7 @@
       <c r="J688" s="18"/>
     </row>
     <row r="692" spans="1:10" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A692" s="20" t="s">
+      <c r="A692" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B692" s="18"/>
